--- a/biology/Botanique/Aeranthes/Aeranthes.xlsx
+++ b/biology/Botanique/Aeranthes/Aeranthes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aeranthes est un genre de plantes à fleurs de la familles des orchidées. Ce sont des épiphytes des forêts tropicales de Madagascar, de La Réunion, des Mascareignes ou des Comores.
 Elles présentent des fleurs verdâtres plus ou moins translucides en inflorescences retombantes.
@@ -512,7 +524,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre comprend une soixantaine d'espèces:
 Aeranthes adenopoda H.Perrier, 1938
